--- a/Competencia_3/registro_experimentos.xlsx
+++ b/Competencia_3/registro_experimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58B9E48-54E0-4196-B356-01751CD8FCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADC6B0C-AC25-42FC-8B3A-12109DF3BD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="3090" windowWidth="21600" windowHeight="11145" xr2:uid="{AF930726-C476-4F77-85C8-6C6A09181C94}"/>
+    <workbookView xWindow="4950" yWindow="2565" windowWidth="21600" windowHeight="11145" xr2:uid="{AF930726-C476-4F77-85C8-6C6A09181C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>exp</t>
   </si>
@@ -96,6 +96,33 @@
   </si>
   <si>
     <t>HT9410</t>
+  </si>
+  <si>
+    <t>Cambiando la semilla original del script</t>
+  </si>
+  <si>
+    <t>Usando el script sin cambios</t>
+  </si>
+  <si>
+    <t>Aumentando las iteraciones en el script original</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>FE9250</t>
+  </si>
+  <si>
+    <t>z925_FE_historia</t>
+  </si>
+  <si>
+    <t>FE Script</t>
+  </si>
+  <si>
+    <t>z925_FE_historia-v0</t>
+  </si>
+  <si>
+    <t>FE9251</t>
   </si>
 </sst>
 </file>
@@ -447,129 +474,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275DA01-BD44-44B6-92C5-6CAB30176C00}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>668111</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>102191</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>102191</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>668111</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Competencia_3/registro_experimentos.xlsx
+++ b/Competencia_3/registro_experimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADC6B0C-AC25-42FC-8B3A-12109DF3BD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9538F4-2859-4D41-ABF5-3E8D81252944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="2565" windowWidth="21600" windowHeight="11145" xr2:uid="{AF930726-C476-4F77-85C8-6C6A09181C94}"/>
+    <workbookView xWindow="3210" yWindow="2730" windowWidth="21600" windowHeight="11145" xr2:uid="{AF930726-C476-4F77-85C8-6C6A09181C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>exp</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>FE9251</t>
+  </si>
+  <si>
+    <t>Agrego la tendencia de 12 meses en dataset de train</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>FE9252</t>
+  </si>
+  <si>
+    <t>z925_FE_historia-v1</t>
+  </si>
+  <si>
+    <t>Activo fn CanaritosAsesinos</t>
   </si>
 </sst>
 </file>
@@ -474,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275DA01-BD44-44B6-92C5-6CAB30176C00}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,6 +502,7 @@
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -520,6 +536,9 @@
       <c r="J1" t="s">
         <v>13</v>
       </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -650,11 +669,31 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Competencia_3/registro_experimentos.xlsx
+++ b/Competencia_3/registro_experimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9538F4-2859-4D41-ABF5-3E8D81252944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1088AE5E-FA70-4BF1-9AB5-476C0AE5F911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2730" windowWidth="21600" windowHeight="11145" xr2:uid="{AF930726-C476-4F77-85C8-6C6A09181C94}"/>
+    <workbookView xWindow="-105" yWindow="2415" windowWidth="21600" windowHeight="11145" xr2:uid="{AF930726-C476-4F77-85C8-6C6A09181C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,26 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>exp</t>
   </si>
   <si>
-    <t>Input</t>
-  </si>
-  <si>
     <t>TS9320</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>HT9421</t>
   </si>
   <si>
-    <t>Script</t>
-  </si>
-  <si>
     <t>z942_HT_lightgbm_under-v1</t>
   </si>
   <si>
@@ -86,9 +77,6 @@
     <t>Semilla</t>
   </si>
   <si>
-    <t>En curso</t>
-  </si>
-  <si>
     <t>TS9310</t>
   </si>
   <si>
@@ -107,9 +95,6 @@
     <t>Aumentando las iteraciones en el script original</t>
   </si>
   <si>
-    <t>FE</t>
-  </si>
-  <si>
     <t>FE9250</t>
   </si>
   <si>
@@ -137,7 +122,61 @@
     <t>z925_FE_historia-v1</t>
   </si>
   <si>
-    <t>Activo fn CanaritosAsesinos</t>
+    <t>Activo fn CanaritosAsesinos y conserva la td de 12 meses</t>
+  </si>
+  <si>
+    <t>HT Script</t>
+  </si>
+  <si>
+    <t>TS Script</t>
+  </si>
+  <si>
+    <t>z931_training_strategy</t>
+  </si>
+  <si>
+    <t>z931_training_strategy_under</t>
+  </si>
+  <si>
+    <t>FE output</t>
+  </si>
+  <si>
+    <t>TS output</t>
+  </si>
+  <si>
+    <t>HT Output</t>
+  </si>
+  <si>
+    <t>TS9311</t>
+  </si>
+  <si>
+    <t>TS9312</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>HT9412</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>HT9411</t>
+  </si>
+  <si>
+    <t>z931_training_strategy-v0</t>
+  </si>
+  <si>
+    <t>TS9313</t>
+  </si>
+  <si>
+    <t>Apilo 5 meses en train (TS) y agrego la tendencia de 12 meses en dataset de train (FE)</t>
+  </si>
+  <si>
+    <t>Apilo 5 meses en train (TS)</t>
+  </si>
+  <si>
+    <t>TS9314</t>
   </si>
 </sst>
 </file>
@@ -489,211 +528,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275DA01-BD44-44B6-92C5-6CAB30176C00}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
+      <c r="L1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>668111</v>
+      </c>
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>668111</v>
-      </c>
-      <c r="I2">
+      <c r="K2">
         <v>100</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
+      <c r="L2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>102191</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>102191</v>
-      </c>
-      <c r="I3">
-        <v>50</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
+      <c r="H4">
         <v>102191</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4">
         <v>100</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
+      <c r="L4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
         <v>668111</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
+      <c r="L5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>668111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>668111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Competencia_3/registro_experimentos.xlsx
+++ b/Competencia_3/registro_experimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1088AE5E-FA70-4BF1-9AB5-476C0AE5F911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F960FB-09ED-45E0-B318-6C834FB52766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="2415" windowWidth="21600" windowHeight="11145" xr2:uid="{AF930726-C476-4F77-85C8-6C6A09181C94}"/>
+    <workbookView xWindow="90" yWindow="90" windowWidth="21600" windowHeight="11145" xr2:uid="{AF930726-C476-4F77-85C8-6C6A09181C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>exp</t>
   </si>
@@ -110,9 +110,6 @@
     <t>FE9251</t>
   </si>
   <si>
-    <t>Agrego la tendencia de 12 meses en dataset de train</t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>z925_FE_historia-v1</t>
   </si>
   <si>
-    <t>Activo fn CanaritosAsesinos y conserva la td de 12 meses</t>
-  </si>
-  <si>
     <t>HT Script</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>TS9312</t>
   </si>
   <si>
-    <t>TS</t>
-  </si>
-  <si>
     <t>HT9412</t>
   </si>
   <si>
@@ -176,7 +167,29 @@
     <t>Apilo 5 meses en train (TS)</t>
   </si>
   <si>
-    <t>TS9314</t>
+    <t>HT9413</t>
+  </si>
+  <si>
+    <t>Agrego la tendencia de 12 meses en dataset de train (FE)</t>
+  </si>
+  <si>
+    <t>Activo fn CanaritosAsesinos y conserva la td de 12 meses (FE)</t>
+  </si>
+  <si>
+    <t>Apilo 5 meses en train (TS) y agrego la tendencia de 12 meses en dataset de train (FE)
+haciendo undersamplig de clase mayoritaria (TS)</t>
+  </si>
+  <si>
+    <t>Cambiando la semilla original del script 942</t>
+  </si>
+  <si>
+    <t>(Variación del exp. 2) Cambiando la semilla original del script 942 y sacando variables de azar</t>
+  </si>
+  <si>
+    <t>z942_HT_lightgbm_under-v2</t>
+  </si>
+  <si>
+    <t>HT9422</t>
   </si>
 </sst>
 </file>
@@ -212,8 +225,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275DA01-BD44-44B6-92C5-6CAB30176C00}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="2" max="2" width="84.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -554,28 +570,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -592,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -601,7 +617,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -636,7 +652,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -671,7 +687,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -706,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -732,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -741,10 +757,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -753,13 +769,13 @@
         <v>668111</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -767,19 +783,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -788,13 +804,13 @@
         <v>668111</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K7">
         <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -802,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -811,16 +827,25 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
+      <c r="H8">
+        <v>668111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -828,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -837,10 +862,47 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>668111</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Competencia_3/registro_experimentos.xlsx
+++ b/Competencia_3/registro_experimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F960FB-09ED-45E0-B318-6C834FB52766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB2920-48C1-4D36-B109-4444F012DD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="90" windowWidth="21600" windowHeight="11145" xr2:uid="{AF930726-C476-4F77-85C8-6C6A09181C94}"/>
+    <workbookView xWindow="-1110" yWindow="4080" windowWidth="21600" windowHeight="11145" xr2:uid="{AF930726-C476-4F77-85C8-6C6A09181C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>exp</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>HT9422</t>
+  </si>
+  <si>
+    <t>z992_ZZ_lightgbm_under</t>
+  </si>
+  <si>
+    <t>ZZ Script</t>
+  </si>
+  <si>
+    <t>ZZ Output</t>
+  </si>
+  <si>
+    <t>ZZ9421</t>
+  </si>
+  <si>
+    <t>HT-volver a iniciar</t>
   </si>
 </sst>
 </file>
@@ -544,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275DA01-BD44-44B6-92C5-6CAB30176C00}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,10 +577,10 @@
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,8 +617,17 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -637,8 +661,17 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2">
+        <v>102191</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -672,8 +705,14 @@
       <c r="L3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3">
+        <v>102191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -707,8 +746,14 @@
       <c r="L4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4">
+        <v>102191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -743,7 +788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -778,7 +823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -810,10 +855,10 @@
         <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -848,7 +893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -865,7 +910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -876,7 +921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -903,6 +948,12 @@
       </c>
       <c r="I11" t="s">
         <v>50</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Competencia_3/registro_experimentos.xlsx
+++ b/Competencia_3/registro_experimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB2920-48C1-4D36-B109-4444F012DD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E60BAC-7188-4A13-90D0-3CA2E5721F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1110" yWindow="4080" windowWidth="21600" windowHeight="11145" xr2:uid="{AF930726-C476-4F77-85C8-6C6A09181C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AF930726-C476-4F77-85C8-6C6A09181C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>exp</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>HT9412</t>
-  </si>
-  <si>
-    <t>HT</t>
   </si>
   <si>
     <t>HT9411</t>
@@ -205,13 +202,37 @@
   </si>
   <si>
     <t>HT-volver a iniciar</t>
+  </si>
+  <si>
+    <t>ZZ94200</t>
+  </si>
+  <si>
+    <t>z992_ZZ_lightgbm_under-v0</t>
+  </si>
+  <si>
+    <t>ZZ9420</t>
+  </si>
+  <si>
+    <t>z991_ZZ_lightgbm-v0</t>
+  </si>
+  <si>
+    <t>ZZ9410</t>
+  </si>
+  <si>
+    <t>ZZ9411</t>
+  </si>
+  <si>
+    <t>varias</t>
+  </si>
+  <si>
+    <t>En curso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,13 +240,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,16 +282,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275DA01-BD44-44B6-92C5-6CAB30176C00}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,11 +627,12 @@
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,21 +670,24 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -658,20 +713,23 @@
       <c r="K2">
         <v>100</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N2">
         <v>102191</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -702,17 +760,20 @@
       <c r="K3">
         <v>50</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" t="s">
-        <v>51</v>
+      <c r="M3" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="N3">
         <v>102191</v>
       </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -743,17 +804,20 @@
       <c r="K4">
         <v>100</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
-        <v>51</v>
+      <c r="M4" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="N4">
         <v>102191</v>
       </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -784,16 +848,28 @@
       <c r="K5">
         <v>50</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -814,21 +890,33 @@
         <v>668111</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6">
         <v>50</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -855,15 +943,15 @@
         <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -872,10 +960,10 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -884,76 +972,76 @@
         <v>668111</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>50</v>
       </c>
-      <c r="L8" t="s">
-        <v>37</v>
+      <c r="L8" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>668111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
+      <c r="B10" t="s">
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>48</v>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11">
-        <v>668111</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-      <c r="L11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Competencia_3/registro_experimentos.xlsx
+++ b/Competencia_3/registro_experimentos.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juancho\Desktop\DMEF\labo\Competencia_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E60BAC-7188-4A13-90D0-3CA2E5721F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C5140E-A745-4538-B41E-DD42D95CCCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AF930726-C476-4F77-85C8-6C6A09181C94}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="experimentos" sheetId="1" r:id="rId1"/>
+    <sheet name="BO_log_resumen" sheetId="2" r:id="rId2"/>
+    <sheet name="kaggle_Public" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BO_log_resumen!$A$1:$AI$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="151">
   <si>
     <t>exp</t>
   </si>
@@ -50,9 +55,6 @@
     <t>z942_HT_lightgbm_under-v1</t>
   </si>
   <si>
-    <t>MV</t>
-  </si>
-  <si>
     <t>kBO_iteraciones</t>
   </si>
   <si>
@@ -126,9 +128,6 @@
   </si>
   <si>
     <t>z931_training_strategy</t>
-  </si>
-  <si>
-    <t>z931_training_strategy_under</t>
   </si>
   <si>
     <t>FE output</t>
@@ -226,6 +225,276 @@
   </si>
   <si>
     <t>En curso</t>
+  </si>
+  <si>
+    <t>En curso (como zz9420)</t>
+  </si>
+  <si>
+    <t>En curso (como zz9420-real)</t>
+  </si>
+  <si>
+    <t>ZZ9413</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>cols</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>boosting</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>first_metric_only</t>
+  </si>
+  <si>
+    <t>boost_from_average</t>
+  </si>
+  <si>
+    <t>feature_pre_filter</t>
+  </si>
+  <si>
+    <t>force_row_wise</t>
+  </si>
+  <si>
+    <t>verbosity</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>min_gain_to_split</t>
+  </si>
+  <si>
+    <t>min_sum_hessian_in_leaf</t>
+  </si>
+  <si>
+    <t>lambda_l1</t>
+  </si>
+  <si>
+    <t>lambda_l2</t>
+  </si>
+  <si>
+    <t>max_bin</t>
+  </si>
+  <si>
+    <t>num_iterations</t>
+  </si>
+  <si>
+    <t>bagging_fraction</t>
+  </si>
+  <si>
+    <t>pos_bagging_fraction</t>
+  </si>
+  <si>
+    <t>neg_bagging_fraction</t>
+  </si>
+  <si>
+    <t>drop_rate</t>
+  </si>
+  <si>
+    <t>max_drop</t>
+  </si>
+  <si>
+    <t>skip_drop</t>
+  </si>
+  <si>
+    <t>extra_trees</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>learning_rate</t>
+  </si>
+  <si>
+    <t>feature_fraction</t>
+  </si>
+  <si>
+    <t>min_data_in_leaf</t>
+  </si>
+  <si>
+    <t>num_leaves</t>
+  </si>
+  <si>
+    <t>prob_corte</t>
+  </si>
+  <si>
+    <t>estimulos</t>
+  </si>
+  <si>
+    <t>ganancia</t>
+  </si>
+  <si>
+    <t>iteracion_bayesiana</t>
+  </si>
+  <si>
+    <t>20221029 060427</t>
+  </si>
+  <si>
+    <t>gbdt</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>20221029 044607</t>
+  </si>
+  <si>
+    <t>20221029 003554</t>
+  </si>
+  <si>
+    <t>20221029 054354</t>
+  </si>
+  <si>
+    <t>20221029 082640</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>20221030 035144</t>
+  </si>
+  <si>
+    <t>20221029 203416</t>
+  </si>
+  <si>
+    <t>20221029 201353</t>
+  </si>
+  <si>
+    <t>20221030 033216</t>
+  </si>
+  <si>
+    <t>20221030 044036</t>
+  </si>
+  <si>
+    <t>20221030 161848</t>
+  </si>
+  <si>
+    <t>20221030 035435</t>
+  </si>
+  <si>
+    <t>20221029 202853</t>
+  </si>
+  <si>
+    <t>20221029 224715</t>
+  </si>
+  <si>
+    <t>20221029 183600</t>
+  </si>
+  <si>
+    <t>20221028 023817</t>
+  </si>
+  <si>
+    <t>20221028 014744</t>
+  </si>
+  <si>
+    <t>20221028 021759</t>
+  </si>
+  <si>
+    <t>20221028 015004</t>
+  </si>
+  <si>
+    <t>20221028 020407</t>
+  </si>
+  <si>
+    <t>20221027 162755</t>
+  </si>
+  <si>
+    <t>20221027 162211</t>
+  </si>
+  <si>
+    <t>20221027 171555</t>
+  </si>
+  <si>
+    <t>20221027 171726</t>
+  </si>
+  <si>
+    <t>20221027 171624</t>
+  </si>
+  <si>
+    <t>20221030 160131</t>
+  </si>
+  <si>
+    <t>20221030 153416</t>
+  </si>
+  <si>
+    <t>20221030 171938</t>
+  </si>
+  <si>
+    <t>20221030 173619</t>
+  </si>
+  <si>
+    <t>20221030 161901</t>
+  </si>
+  <si>
+    <t>20221029 001435</t>
+  </si>
+  <si>
+    <t>20221028 231956</t>
+  </si>
+  <si>
+    <t>20221029 003038</t>
+  </si>
+  <si>
+    <t>20221028 233136</t>
+  </si>
+  <si>
+    <t>20221029 001808</t>
+  </si>
+  <si>
+    <t>TS9314</t>
+  </si>
+  <si>
+    <t>ZZ9421_02_018_11000.csv</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Archivo</t>
+  </si>
+  <si>
+    <t>ZZ9411_01_063_11000_102191.csv</t>
+  </si>
+  <si>
+    <t>ZZ9411_01_063_11000_676241.csv</t>
+  </si>
+  <si>
+    <t>ZZ9411_01_063_11000_433889.csv</t>
+  </si>
+  <si>
+    <t>ZZ9411_01_063_11000_668111.csv</t>
+  </si>
+  <si>
+    <t>Experimento</t>
+  </si>
+  <si>
+    <t>Apilo 5 meses en train (TS) y agrego la tendencia de 12 meses en dataset de train (FE) haciendo undersampling del 0.3</t>
+  </si>
+  <si>
+    <t>TS9321</t>
+  </si>
+  <si>
+    <t>z932_training_strategy_under</t>
+  </si>
+  <si>
+    <t>z932_training_strategy_under-v0</t>
+  </si>
+  <si>
+    <t>HT9423</t>
   </si>
 </sst>
 </file>
@@ -249,7 +518,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,7 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -287,17 +556,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -610,438 +883,4478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275DA01-BD44-44B6-92C5-6CAB30176C00}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
       <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>668111</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>100</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2">
+        <v>102191</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>102191</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3">
+        <v>102191</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>102191</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J4" s="2">
+        <v>100</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4">
+        <v>102191</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2">
+        <v>668111</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2">
+        <v>668111</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5">
+        <v>668111</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="5">
+        <v>50</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2">
+        <v>668111</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2">
+        <v>50</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2">
+      <c r="H9" s="2">
         <v>668111</v>
       </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2">
+      <c r="I9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="2">
         <v>100</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2">
-        <v>102191</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s">
-        <v>11</v>
+      <c r="K9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>102191</v>
-      </c>
-      <c r="I3" t="s">
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="K3">
-        <v>50</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3">
-        <v>102191</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
+      <c r="B10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>668111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>102191</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4">
-        <v>102191</v>
-      </c>
-      <c r="O4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>668111</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>668111</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6">
-        <v>50</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>668111</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7">
-        <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>668111</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8">
-        <v>50</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9">
-        <v>668111</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
+      <c r="B11" t="s">
+        <v>38</v>
       </c>
       <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED14113-5861-45B8-BFB9-AE7E3F951A1E}">
+  <dimension ref="A1:AI36"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>309</v>
+      </c>
+      <c r="C2">
+        <v>486161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>-100</v>
+      </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1E-3</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>31</v>
+      </c>
+      <c r="R2">
+        <v>1394</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0.1</v>
+      </c>
+      <c r="W2">
+        <v>50</v>
+      </c>
+      <c r="X2">
+        <v>0.5</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>668111</v>
+      </c>
+      <c r="AA2">
+        <v>1.87983068152573E-2</v>
+      </c>
+      <c r="AB2">
+        <v>0.65157759648982205</v>
+      </c>
+      <c r="AC2">
+        <v>107</v>
+      </c>
+      <c r="AD2">
+        <v>1016</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>5.20797652665118E-6</v>
+      </c>
+      <c r="AF2">
+        <v>10585</v>
+      </c>
+      <c r="AG2">
+        <v>21950000</v>
+      </c>
+      <c r="AH2">
+        <v>63</v>
+      </c>
+      <c r="AI2">
+        <v>9413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3">
+        <v>309</v>
+      </c>
+      <c r="C3">
+        <v>486161</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>-100</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1E-3</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>31</v>
+      </c>
+      <c r="R3">
+        <v>4309</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0.1</v>
+      </c>
+      <c r="W3">
+        <v>50</v>
+      </c>
+      <c r="X3">
+        <v>0.5</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>668111</v>
+      </c>
+      <c r="AA3">
+        <v>5.1983308671693703E-3</v>
+      </c>
+      <c r="AB3">
+        <v>0.78952541305054902</v>
+      </c>
+      <c r="AC3">
+        <v>108</v>
+      </c>
+      <c r="AD3">
+        <v>1114</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>8.9633211390346292E-6</v>
+      </c>
+      <c r="AF3">
+        <v>10351</v>
+      </c>
+      <c r="AG3">
+        <v>21698000</v>
+      </c>
+      <c r="AH3">
+        <v>41</v>
+      </c>
+      <c r="AI3">
+        <v>9413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>309</v>
+      </c>
+      <c r="C4">
+        <v>486161</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>-100</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1E-3</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>31</v>
+      </c>
+      <c r="R4">
+        <v>4099</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0.1</v>
+      </c>
+      <c r="W4">
+        <v>50</v>
+      </c>
+      <c r="X4">
+        <v>0.5</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>668111</v>
+      </c>
+      <c r="AA4">
+        <v>8.2148215225288593E-3</v>
+      </c>
+      <c r="AB4">
+        <v>0.60434063852442199</v>
+      </c>
+      <c r="AC4">
+        <v>105</v>
+      </c>
+      <c r="AD4">
+        <v>1842</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>2.17359697392552E-6</v>
+      </c>
+      <c r="AF4">
+        <v>11046</v>
+      </c>
+      <c r="AG4">
+        <v>21428000</v>
+      </c>
+      <c r="AH4">
+        <v>22</v>
+      </c>
+      <c r="AI4">
+        <v>9413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>309</v>
+      </c>
+      <c r="C5">
+        <v>486161</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>-100</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1E-3</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>31</v>
+      </c>
+      <c r="R5">
+        <v>1663</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0.1</v>
+      </c>
+      <c r="W5">
+        <v>50</v>
+      </c>
+      <c r="X5">
+        <v>0.5</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>668111</v>
+      </c>
+      <c r="AA5">
+        <v>1.38514584515589E-2</v>
+      </c>
+      <c r="AB5">
+        <v>0.63880014353595105</v>
+      </c>
+      <c r="AC5">
+        <v>105</v>
+      </c>
+      <c r="AD5">
+        <v>1198</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>6.4972185140581703E-6</v>
+      </c>
+      <c r="AF5">
+        <v>11111</v>
+      </c>
+      <c r="AG5">
+        <v>21218000</v>
+      </c>
+      <c r="AH5">
+        <v>26</v>
+      </c>
+      <c r="AI5">
+        <v>9413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6">
+        <v>1222</v>
+      </c>
+      <c r="C6">
+        <v>486161</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>-100</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1E-3</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>31</v>
+      </c>
+      <c r="R6">
+        <v>559</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>0.1</v>
+      </c>
+      <c r="W6">
+        <v>50</v>
+      </c>
+      <c r="X6">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>668111</v>
+      </c>
+      <c r="AA6">
+        <v>3.75209006206857E-2</v>
+      </c>
+      <c r="AB6">
+        <v>0.67254963676481305</v>
+      </c>
+      <c r="AC6">
+        <v>56</v>
+      </c>
+      <c r="AD6">
+        <v>1429</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>3.3535838146720299E-6</v>
+      </c>
+      <c r="AF6">
+        <v>11955</v>
+      </c>
+      <c r="AG6">
+        <v>21210000</v>
+      </c>
+      <c r="AH6">
+        <v>63</v>
+      </c>
+      <c r="AI6">
+        <v>9411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7">
+        <v>309</v>
+      </c>
+      <c r="C7">
+        <v>486161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>-100</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1E-3</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>31</v>
+      </c>
+      <c r="R7">
+        <v>3464</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0.1</v>
+      </c>
+      <c r="W7">
+        <v>50</v>
+      </c>
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>668111</v>
+      </c>
+      <c r="AA7">
+        <v>5.2553351544134003E-3</v>
+      </c>
+      <c r="AB7">
+        <v>0.51207479193892802</v>
+      </c>
+      <c r="AC7">
+        <v>113</v>
+      </c>
+      <c r="AD7">
+        <v>1141</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>2.4870361358805601E-5</v>
+      </c>
+      <c r="AF7">
+        <v>12115</v>
+      </c>
+      <c r="AG7">
+        <v>21210000</v>
+      </c>
+      <c r="AH7">
+        <v>19</v>
+      </c>
+      <c r="AI7">
+        <v>9413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8">
+        <v>1222</v>
+      </c>
+      <c r="C8">
+        <v>486161</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>-100</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1E-3</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>31</v>
+      </c>
+      <c r="R8">
+        <v>1006</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>0.1</v>
+      </c>
+      <c r="W8">
+        <v>50</v>
+      </c>
+      <c r="X8">
+        <v>0.5</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>668111</v>
+      </c>
+      <c r="AA8">
+        <v>3.2519872510725099E-2</v>
+      </c>
+      <c r="AB8">
+        <v>0.20079887950031899</v>
+      </c>
+      <c r="AC8">
+        <v>1006</v>
+      </c>
+      <c r="AD8">
+        <v>881</v>
+      </c>
+      <c r="AE8">
+        <v>5.7742000584546998E-4</v>
+      </c>
+      <c r="AF8">
+        <v>11993</v>
+      </c>
+      <c r="AG8">
+        <v>20734000</v>
+      </c>
+      <c r="AH8">
+        <v>22</v>
+      </c>
+      <c r="AI8">
+        <v>9411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9">
+        <v>1222</v>
+      </c>
+      <c r="C9">
+        <v>486161</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>-100</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1E-3</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>31</v>
+      </c>
+      <c r="R9">
+        <v>996</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0.1</v>
+      </c>
+      <c r="W9">
+        <v>50</v>
+      </c>
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>668111</v>
+      </c>
+      <c r="AA9">
+        <v>3.3909392496610902E-2</v>
+      </c>
+      <c r="AB9">
+        <v>0.29305763290246301</v>
+      </c>
+      <c r="AC9">
+        <v>6</v>
+      </c>
+      <c r="AD9">
+        <v>1045</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>1.42003191071944E-6</v>
+      </c>
+      <c r="AF9">
+        <v>11514</v>
+      </c>
+      <c r="AG9">
+        <v>20652000</v>
+      </c>
+      <c r="AH9">
+        <v>20</v>
+      </c>
+      <c r="AI9">
+        <v>9411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <v>1222</v>
+      </c>
+      <c r="C10">
+        <v>486161</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>-100</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1E-3</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>31</v>
+      </c>
+      <c r="R10">
+        <v>1756</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0.1</v>
+      </c>
+      <c r="W10">
+        <v>50</v>
+      </c>
+      <c r="X10">
+        <v>0.5</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>668111</v>
+      </c>
+      <c r="AA10">
+        <v>2.7303040806016299E-2</v>
+      </c>
+      <c r="AB10">
+        <v>0.267110444020072</v>
+      </c>
+      <c r="AC10">
+        <v>716</v>
+      </c>
+      <c r="AD10">
+        <v>983</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>8.6280314760861395E-6</v>
+      </c>
+      <c r="AF10">
+        <v>12544</v>
+      </c>
+      <c r="AG10">
+        <v>20352000</v>
+      </c>
+      <c r="AH10">
+        <v>62</v>
+      </c>
+      <c r="AI10">
+        <v>9411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11">
+        <v>1222</v>
+      </c>
+      <c r="C11">
+        <v>486161</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>-100</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1E-3</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>31</v>
+      </c>
+      <c r="R11">
+        <v>1793</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0.1</v>
+      </c>
+      <c r="W11">
+        <v>50</v>
+      </c>
+      <c r="X11">
+        <v>0.5</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>668111</v>
+      </c>
+      <c r="AA11">
+        <v>1.9557653116865501E-2</v>
+      </c>
+      <c r="AB11">
+        <v>0.79696332009192505</v>
+      </c>
+      <c r="AC11">
+        <v>1128</v>
+      </c>
+      <c r="AD11">
+        <v>946</v>
+      </c>
+      <c r="AE11">
+        <v>2.4365892537449299E-4</v>
+      </c>
+      <c r="AF11">
+        <v>12623</v>
+      </c>
+      <c r="AG11">
+        <v>20114000</v>
+      </c>
+      <c r="AH11">
+        <v>66</v>
+      </c>
+      <c r="AI11">
+        <v>9411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12">
+        <v>978</v>
+      </c>
+      <c r="C12">
+        <v>486161</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>-100</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1E-3</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>31</v>
+      </c>
+      <c r="R12">
+        <v>1492</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0.1</v>
+      </c>
+      <c r="W12">
+        <v>50</v>
+      </c>
+      <c r="X12">
+        <v>0.5</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>668111</v>
+      </c>
+      <c r="AA12">
+        <v>1.0081755835600399E-2</v>
+      </c>
+      <c r="AB12">
+        <v>0.57072921307325597</v>
+      </c>
+      <c r="AC12">
+        <v>2531</v>
+      </c>
+      <c r="AD12">
+        <v>1428</v>
+      </c>
+      <c r="AE12">
+        <v>1.59654494724117E-2</v>
+      </c>
+      <c r="AF12">
+        <v>13665</v>
+      </c>
+      <c r="AG12">
+        <v>19630000</v>
+      </c>
+      <c r="AH12">
+        <v>25</v>
+      </c>
+      <c r="AI12">
+        <v>9410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13">
+        <v>978</v>
+      </c>
+      <c r="C13">
+        <v>486161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>-100</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1E-3</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>31</v>
+      </c>
+      <c r="R13">
+        <v>4023</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0.1</v>
+      </c>
+      <c r="W13">
+        <v>50</v>
+      </c>
+      <c r="X13">
+        <v>0.5</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>668111</v>
+      </c>
+      <c r="AA13">
+        <v>5.0021363353046902E-3</v>
+      </c>
+      <c r="AB13">
+        <v>0.57948632433858005</v>
+      </c>
+      <c r="AC13">
+        <v>1857</v>
+      </c>
+      <c r="AD13">
+        <v>1222</v>
+      </c>
+      <c r="AE13">
+        <v>8.2461262421483997E-3</v>
+      </c>
+      <c r="AF13">
+        <v>12721</v>
+      </c>
+      <c r="AG13">
+        <v>19598000</v>
+      </c>
+      <c r="AH13">
         <v>23</v>
+      </c>
+      <c r="AI13">
+        <v>9410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14">
+        <v>978</v>
+      </c>
+      <c r="C14">
+        <v>486161</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>-100</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1E-3</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>31</v>
+      </c>
+      <c r="R14">
+        <v>3082</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0.1</v>
+      </c>
+      <c r="W14">
+        <v>50</v>
+      </c>
+      <c r="X14">
+        <v>0.5</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>668111</v>
+      </c>
+      <c r="AA14">
+        <v>5.3851145030057498E-3</v>
+      </c>
+      <c r="AB14">
+        <v>0.58350995093351199</v>
+      </c>
+      <c r="AC14">
+        <v>2801</v>
+      </c>
+      <c r="AD14">
+        <v>1985</v>
+      </c>
+      <c r="AE14">
+        <v>1.5069154464169799E-2</v>
+      </c>
+      <c r="AF14">
+        <v>13925</v>
+      </c>
+      <c r="AG14">
+        <v>19430000</v>
+      </c>
+      <c r="AH14">
+        <v>8</v>
+      </c>
+      <c r="AI14">
+        <v>9410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15">
+        <v>978</v>
+      </c>
+      <c r="C15">
+        <v>486161</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>-100</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1E-3</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>31</v>
+      </c>
+      <c r="R15">
+        <v>6344</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0.1</v>
+      </c>
+      <c r="W15">
+        <v>50</v>
+      </c>
+      <c r="X15">
+        <v>0.5</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>668111</v>
+      </c>
+      <c r="AA15">
+        <v>5.0892838473948401E-3</v>
+      </c>
+      <c r="AB15">
+        <v>0.57820651381452304</v>
+      </c>
+      <c r="AC15">
+        <v>5805</v>
+      </c>
+      <c r="AD15">
+        <v>1231</v>
+      </c>
+      <c r="AE15">
+        <v>1.6755381756719499E-2</v>
+      </c>
+      <c r="AF15">
+        <v>13165</v>
+      </c>
+      <c r="AG15">
+        <v>19270000</v>
+      </c>
+      <c r="AH15">
+        <v>24</v>
+      </c>
+      <c r="AI15">
+        <v>9410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16">
+        <v>978</v>
+      </c>
+      <c r="C16">
+        <v>486161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>-100</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1E-3</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>31</v>
+      </c>
+      <c r="R16">
+        <v>1047</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>0.1</v>
+      </c>
+      <c r="W16">
+        <v>50</v>
+      </c>
+      <c r="X16">
+        <v>0.5</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>668111</v>
+      </c>
+      <c r="AA16">
+        <v>2.2499458502639302E-2</v>
+      </c>
+      <c r="AB16">
+        <v>0.87110525726247601</v>
+      </c>
+      <c r="AC16">
+        <v>3547</v>
+      </c>
+      <c r="AD16">
+        <v>2010</v>
+      </c>
+      <c r="AE16">
+        <v>1.36662848722705E-2</v>
+      </c>
+      <c r="AF16">
+        <v>13210</v>
+      </c>
+      <c r="AG16">
+        <v>19260000</v>
+      </c>
+      <c r="AH16">
+        <v>30</v>
+      </c>
+      <c r="AI16">
+        <v>9410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17">
+        <v>979</v>
+      </c>
+      <c r="C17">
+        <v>53781</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>-100</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1E-3</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>31</v>
+      </c>
+      <c r="R17">
+        <v>161</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0.1</v>
+      </c>
+      <c r="W17">
+        <v>50</v>
+      </c>
+      <c r="X17">
+        <v>0.5</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>668111</v>
+      </c>
+      <c r="AA17">
+        <v>0.17974044459362501</v>
+      </c>
+      <c r="AB17">
+        <v>0.20034013818819499</v>
+      </c>
+      <c r="AC17">
+        <v>0.82268876379853995</v>
+      </c>
+      <c r="AD17">
+        <v>11.980048307696199</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>6.1473335198903803E-5</v>
+      </c>
+      <c r="AF17">
+        <v>14611</v>
+      </c>
+      <c r="AG17">
+        <v>18778000</v>
+      </c>
+      <c r="AH17">
+        <v>22</v>
+      </c>
+      <c r="AI17">
+        <v>9421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18">
+        <v>977</v>
+      </c>
+      <c r="C18">
+        <v>53781</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>-100</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1E-3</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>31</v>
+      </c>
+      <c r="R18">
+        <v>2082</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0.1</v>
+      </c>
+      <c r="W18">
+        <v>50</v>
+      </c>
+      <c r="X18">
+        <v>0.5</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>668111</v>
+      </c>
+      <c r="AA18">
+        <v>1.5531589882699599E-2</v>
+      </c>
+      <c r="AB18">
+        <v>0.73038464702472905</v>
+      </c>
+      <c r="AC18">
+        <v>0.29210784960886099</v>
+      </c>
+      <c r="AD18">
+        <v>11.993343582130599</v>
+      </c>
+      <c r="AE18">
+        <v>4.8509310119720201E-4</v>
+      </c>
+      <c r="AF18">
+        <v>14062</v>
+      </c>
+      <c r="AG18">
+        <v>18676000</v>
+      </c>
+      <c r="AH18">
+        <v>22</v>
+      </c>
+      <c r="AI18">
+        <v>9422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19">
+        <v>977</v>
+      </c>
+      <c r="C19">
+        <v>53781</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>-100</v>
+      </c>
+      <c r="L19">
+        <v>-1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1E-3</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>31</v>
+      </c>
+      <c r="R19">
+        <v>1268</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>0.1</v>
+      </c>
+      <c r="W19">
+        <v>50</v>
+      </c>
+      <c r="X19">
+        <v>0.5</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>668111</v>
+      </c>
+      <c r="AA19">
+        <v>2.7202857511069201E-2</v>
+      </c>
+      <c r="AB19">
+        <v>0.70332894294685699</v>
+      </c>
+      <c r="AC19">
+        <v>0.47117972490619903</v>
+      </c>
+      <c r="AD19">
+        <v>11.789778859055099</v>
+      </c>
+      <c r="AE19">
+        <v>4.5643162057669602E-4</v>
+      </c>
+      <c r="AF19">
+        <v>14103</v>
+      </c>
+      <c r="AG19">
+        <v>18594000</v>
+      </c>
+      <c r="AH19">
+        <v>18</v>
+      </c>
+      <c r="AI19">
+        <v>9422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20">
+        <v>977</v>
+      </c>
+      <c r="C20">
+        <v>53781</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>-100</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1E-3</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>31</v>
+      </c>
+      <c r="R20">
+        <v>950</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0.1</v>
+      </c>
+      <c r="W20">
+        <v>50</v>
+      </c>
+      <c r="X20">
+        <v>0.5</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>668111</v>
+      </c>
+      <c r="AA20">
+        <v>8.9667182058631403E-2</v>
+      </c>
+      <c r="AB20">
+        <v>0.26284339490300002</v>
+      </c>
+      <c r="AC20">
+        <v>0.26654708655194798</v>
+      </c>
+      <c r="AD20">
+        <v>10.235573403035501</v>
+      </c>
+      <c r="AE20">
+        <v>4.85596596803569E-4</v>
+      </c>
+      <c r="AF20">
+        <v>13747</v>
+      </c>
+      <c r="AG20">
+        <v>18586000</v>
+      </c>
+      <c r="AH20">
+        <v>42</v>
+      </c>
+      <c r="AI20">
+        <v>9422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21">
+        <v>979</v>
+      </c>
+      <c r="C21">
+        <v>53781</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>-100</v>
+      </c>
+      <c r="L21">
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1E-3</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>31</v>
+      </c>
+      <c r="R21">
+        <v>1203</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0.1</v>
+      </c>
+      <c r="W21">
+        <v>50</v>
+      </c>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>102191</v>
+      </c>
+      <c r="AA21">
+        <v>1.4674081711793E-2</v>
+      </c>
+      <c r="AB21">
+        <v>0.30526976219694801</v>
+      </c>
+      <c r="AC21">
+        <v>0.663858922329987</v>
+      </c>
+      <c r="AD21">
+        <v>11.9972781109555</v>
+      </c>
+      <c r="AE21">
+        <v>1.3216962075241501E-4</v>
+      </c>
+      <c r="AF21">
+        <v>13871</v>
+      </c>
+      <c r="AG21">
+        <v>18498000</v>
+      </c>
+      <c r="AH21">
+        <v>31</v>
+      </c>
+      <c r="AI21">
+        <v>94200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22">
+        <v>979</v>
+      </c>
+      <c r="C22">
+        <v>53781</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>-100</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1E-3</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>31</v>
+      </c>
+      <c r="R22">
+        <v>203</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>0.1</v>
+      </c>
+      <c r="W22">
+        <v>50</v>
+      </c>
+      <c r="X22">
+        <v>0.5</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>668111</v>
+      </c>
+      <c r="AA22">
+        <v>0.14410633250535199</v>
+      </c>
+      <c r="AB22">
+        <v>0.20012094324992699</v>
+      </c>
+      <c r="AC22">
+        <v>0.79758087915101705</v>
+      </c>
+      <c r="AD22">
+        <v>10.535272928175599</v>
+      </c>
+      <c r="AE22">
+        <v>1.02968832559617E-4</v>
+      </c>
+      <c r="AF22">
+        <v>14136</v>
+      </c>
+      <c r="AG22">
+        <v>18448000</v>
+      </c>
+      <c r="AH22">
+        <v>18</v>
+      </c>
+      <c r="AI22">
+        <v>9421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23">
+        <v>977</v>
+      </c>
+      <c r="C23">
+        <v>53781</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>-100</v>
+      </c>
+      <c r="L23">
+        <v>-1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1E-3</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>31</v>
+      </c>
+      <c r="R23">
+        <v>472</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>0.1</v>
+      </c>
+      <c r="W23">
+        <v>50</v>
+      </c>
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>668111</v>
+      </c>
+      <c r="AA23">
+        <v>0.28090316850537</v>
+      </c>
+      <c r="AB23">
+        <v>0.37091101235989499</v>
+      </c>
+      <c r="AC23">
+        <v>0.99095692279188696</v>
+      </c>
+      <c r="AD23">
+        <v>8.1248244741095696</v>
+      </c>
+      <c r="AE23">
+        <v>4.5698433936278702E-4</v>
+      </c>
+      <c r="AF23">
+        <v>14061</v>
+      </c>
+      <c r="AG23">
+        <v>18438000</v>
+      </c>
+      <c r="AH23">
+        <v>55</v>
+      </c>
+      <c r="AI23">
+        <v>9422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24">
+        <v>977</v>
+      </c>
+      <c r="C24">
+        <v>53781</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>-100</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1E-3</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>31</v>
+      </c>
+      <c r="R24">
+        <v>4952</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>0.1</v>
+      </c>
+      <c r="W24">
+        <v>50</v>
+      </c>
+      <c r="X24">
+        <v>0.5</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>668111</v>
+      </c>
+      <c r="AA24">
+        <v>1.30657994432101E-2</v>
+      </c>
+      <c r="AB24">
+        <v>0.68992672136523103</v>
+      </c>
+      <c r="AC24">
+        <v>0.25470528320552699</v>
+      </c>
+      <c r="AD24">
+        <v>11.707826771558</v>
+      </c>
+      <c r="AE24">
+        <v>2.32516041007796E-4</v>
+      </c>
+      <c r="AF24">
+        <v>14767</v>
+      </c>
+      <c r="AG24">
+        <v>18386000</v>
+      </c>
+      <c r="AH24">
+        <v>24</v>
+      </c>
+      <c r="AI24">
+        <v>9422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25">
+        <v>979</v>
+      </c>
+      <c r="C25">
+        <v>53781</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>-100</v>
+      </c>
+      <c r="L25">
+        <v>-1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1E-3</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>31</v>
+      </c>
+      <c r="R25">
+        <v>365</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>0.1</v>
+      </c>
+      <c r="W25">
+        <v>50</v>
+      </c>
+      <c r="X25">
+        <v>0.5</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>102191</v>
+      </c>
+      <c r="AA25">
+        <v>7.4513784474876596E-2</v>
+      </c>
+      <c r="AB25">
+        <v>0.30188270040170301</v>
+      </c>
+      <c r="AC25">
+        <v>0.66549663426677597</v>
+      </c>
+      <c r="AD25">
+        <v>11.6902286838768</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>3.3760158473455098E-5</v>
+      </c>
+      <c r="AF25">
+        <v>13927</v>
+      </c>
+      <c r="AG25">
+        <v>18386000</v>
+      </c>
+      <c r="AH25">
+        <v>21</v>
+      </c>
+      <c r="AI25">
+        <v>94200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26">
+        <v>979</v>
+      </c>
+      <c r="C26">
+        <v>53781</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>-100</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1E-3</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>31</v>
+      </c>
+      <c r="R26">
+        <v>710</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0.1</v>
+      </c>
+      <c r="W26">
+        <v>50</v>
+      </c>
+      <c r="X26">
+        <v>0.5</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>102191</v>
+      </c>
+      <c r="AA26">
+        <v>2.92063571832075E-2</v>
+      </c>
+      <c r="AB26">
+        <v>0.282427688461451</v>
+      </c>
+      <c r="AC26">
+        <v>0.66834425022365096</v>
+      </c>
+      <c r="AD26">
+        <v>11.9677677848922</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>9.1659646206728005E-5</v>
+      </c>
+      <c r="AF26">
+        <v>13770</v>
+      </c>
+      <c r="AG26">
+        <v>18300000</v>
+      </c>
+      <c r="AH26">
+        <v>37</v>
+      </c>
+      <c r="AI26">
+        <v>94200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27">
+        <v>979</v>
+      </c>
+      <c r="C27">
+        <v>53781</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>-100</v>
+      </c>
+      <c r="L27">
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1E-3</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>31</v>
+      </c>
+      <c r="R27">
+        <v>519</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0.1</v>
+      </c>
+      <c r="W27">
+        <v>50</v>
+      </c>
+      <c r="X27">
+        <v>0.5</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>668111</v>
+      </c>
+      <c r="AA27">
+        <v>5.7654581947924999E-2</v>
+      </c>
+      <c r="AB27">
+        <v>0.22352559138583</v>
+      </c>
+      <c r="AC27">
+        <v>0.45488426689917699</v>
+      </c>
+      <c r="AD27">
+        <v>11.265885179304499</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>4.5442622844359601E-5</v>
+      </c>
+      <c r="AF27">
+        <v>14415</v>
+      </c>
+      <c r="AG27">
+        <v>18290000</v>
+      </c>
+      <c r="AH27">
+        <v>82</v>
+      </c>
+      <c r="AI27">
+        <v>9421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28">
+        <v>979</v>
+      </c>
+      <c r="C28">
+        <v>53781</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>-100</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1E-3</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>31</v>
+      </c>
+      <c r="R28">
+        <v>261</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>0.1</v>
+      </c>
+      <c r="W28">
+        <v>50</v>
+      </c>
+      <c r="X28">
+        <v>0.5</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>668111</v>
+      </c>
+      <c r="AA28">
+        <v>0.102418586976156</v>
+      </c>
+      <c r="AB28">
+        <v>0.29444201033753298</v>
+      </c>
+      <c r="AC28">
+        <v>0.49191675827647602</v>
+      </c>
+      <c r="AD28">
+        <v>11.831422174871699</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>2.9412963515440199E-5</v>
+      </c>
+      <c r="AF28">
+        <v>14221</v>
+      </c>
+      <c r="AG28">
+        <v>18278000</v>
+      </c>
+      <c r="AH28">
+        <v>84</v>
+      </c>
+      <c r="AI28">
+        <v>9421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29">
+        <v>979</v>
+      </c>
+      <c r="C29">
+        <v>53781</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>-100</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1E-3</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>31</v>
+      </c>
+      <c r="R29">
+        <v>173</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>0.1</v>
+      </c>
+      <c r="W29">
+        <v>50</v>
+      </c>
+      <c r="X29">
+        <v>0.5</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>102191</v>
+      </c>
+      <c r="AA29">
+        <v>4.6562517577207002E-2</v>
+      </c>
+      <c r="AB29">
+        <v>0.54449953338299695</v>
+      </c>
+      <c r="AC29">
+        <v>8.8756162884294207E-2</v>
+      </c>
+      <c r="AD29">
+        <v>8.7338446683711108</v>
+      </c>
+      <c r="AE29">
+        <v>2.4945265583867001E-2</v>
+      </c>
+      <c r="AF29">
+        <v>14201</v>
+      </c>
+      <c r="AG29">
+        <v>18238000</v>
+      </c>
+      <c r="AH29">
+        <v>62</v>
+      </c>
+      <c r="AI29">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30">
+        <v>979</v>
+      </c>
+      <c r="C30">
+        <v>53781</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>-100</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1E-3</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>31</v>
+      </c>
+      <c r="R30">
+        <v>352</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0.1</v>
+      </c>
+      <c r="W30">
+        <v>50</v>
+      </c>
+      <c r="X30">
+        <v>0.5</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>102191</v>
+      </c>
+      <c r="AA30">
+        <v>6.3221428635739402E-2</v>
+      </c>
+      <c r="AB30">
+        <v>0.25246609336336201</v>
+      </c>
+      <c r="AC30">
+        <v>0.92716240079059098</v>
+      </c>
+      <c r="AD30">
+        <v>11.9812781206265</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>6.2950076784302602E-5</v>
+      </c>
+      <c r="AF30">
+        <v>15168</v>
+      </c>
+      <c r="AG30">
+        <v>17664000</v>
+      </c>
+      <c r="AH30">
+        <v>24</v>
+      </c>
+      <c r="AI30">
+        <v>94200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31">
+        <v>979</v>
+      </c>
+      <c r="C31">
+        <v>53781</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>-100</v>
+      </c>
+      <c r="L31">
+        <v>-1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1E-3</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>31</v>
+      </c>
+      <c r="R31">
+        <v>133</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0.1</v>
+      </c>
+      <c r="W31">
+        <v>50</v>
+      </c>
+      <c r="X31">
+        <v>0.5</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>668111</v>
+      </c>
+      <c r="AA31">
+        <v>0.104466332211748</v>
+      </c>
+      <c r="AB31">
+        <v>0.22762014874224601</v>
+      </c>
+      <c r="AC31">
+        <v>0.79266603964776705</v>
+      </c>
+      <c r="AD31">
+        <v>4.4237533523542796</v>
+      </c>
+      <c r="AE31">
+        <v>3.3763569836383303E-2</v>
+      </c>
+      <c r="AF31">
+        <v>14892</v>
+      </c>
+      <c r="AG31">
+        <v>17336000</v>
+      </c>
+      <c r="AH31">
+        <v>83</v>
+      </c>
+      <c r="AI31">
+        <v>9421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32">
+        <v>979</v>
+      </c>
+      <c r="C32">
+        <v>53781</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>-100</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1E-3</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>31</v>
+      </c>
+      <c r="R32">
+        <v>602</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>0.1</v>
+      </c>
+      <c r="W32">
+        <v>50</v>
+      </c>
+      <c r="X32">
+        <v>0.5</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>102191</v>
+      </c>
+      <c r="AA32">
+        <v>3.9798249025423199E-2</v>
+      </c>
+      <c r="AB32">
+        <v>0.30284605233429701</v>
+      </c>
+      <c r="AC32">
+        <v>0.65911878808062097</v>
+      </c>
+      <c r="AD32">
+        <v>11.950488203373</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>2.7574133730429902E-5</v>
+      </c>
+      <c r="AF32">
+        <v>15501</v>
+      </c>
+      <c r="AG32">
+        <v>17318000</v>
+      </c>
+      <c r="AH32">
+        <v>33</v>
+      </c>
+      <c r="AI32">
+        <v>94200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33">
+        <v>979</v>
+      </c>
+      <c r="C33">
+        <v>53781</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>-100</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1E-3</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>31</v>
+      </c>
+      <c r="R33">
+        <v>143</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>0.1</v>
+      </c>
+      <c r="W33">
+        <v>50</v>
+      </c>
+      <c r="X33">
+        <v>0.5</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>102191</v>
+      </c>
+      <c r="AA33">
+        <v>0.21141429354465799</v>
+      </c>
+      <c r="AB33">
+        <v>0.30409817545441897</v>
+      </c>
+      <c r="AC33">
+        <v>0.148071137715306</v>
+      </c>
+      <c r="AD33">
+        <v>10.8469644891884</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>3.9947321366492102E-5</v>
+      </c>
+      <c r="AF33">
+        <v>13868</v>
+      </c>
+      <c r="AG33">
+        <v>17304000</v>
+      </c>
+      <c r="AH33">
+        <v>3</v>
+      </c>
+      <c r="AI33">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34">
+        <v>979</v>
+      </c>
+      <c r="C34">
+        <v>53781</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>-100</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1E-3</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>31</v>
+      </c>
+      <c r="R34">
+        <v>565</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>0.1</v>
+      </c>
+      <c r="W34">
+        <v>50</v>
+      </c>
+      <c r="X34">
+        <v>0.5</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>102191</v>
+      </c>
+      <c r="AA34">
+        <v>5.24506966050831E-2</v>
+      </c>
+      <c r="AB34">
+        <v>0.20168551318859701</v>
+      </c>
+      <c r="AC34">
+        <v>0.304756164325995</v>
+      </c>
+      <c r="AD34">
+        <v>11.4215139060942</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>4.6812008025926798E-5</v>
+      </c>
+      <c r="AF34">
+        <v>15124</v>
+      </c>
+      <c r="AG34">
+        <v>17112000</v>
+      </c>
+      <c r="AH34">
+        <v>37</v>
+      </c>
+      <c r="AI34">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35">
+        <v>979</v>
+      </c>
+      <c r="C35">
+        <v>53781</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>-100</v>
+      </c>
+      <c r="L35">
+        <v>-1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1E-3</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>31</v>
+      </c>
+      <c r="R35">
+        <v>183</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>0.1</v>
+      </c>
+      <c r="W35">
+        <v>50</v>
+      </c>
+      <c r="X35">
+        <v>0.5</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>102191</v>
+      </c>
+      <c r="AA35">
+        <v>2.51504674379248E-2</v>
+      </c>
+      <c r="AB35">
+        <v>0.76547726464050403</v>
+      </c>
+      <c r="AC35">
+        <v>0.67964262897367</v>
+      </c>
+      <c r="AD35">
+        <v>9.3241903103044006</v>
+      </c>
+      <c r="AE35">
+        <v>1.75433557466892E-2</v>
+      </c>
+      <c r="AF35">
+        <v>15690</v>
+      </c>
+      <c r="AG35">
+        <v>17020000</v>
+      </c>
+      <c r="AH35">
+        <v>6</v>
+      </c>
+      <c r="AI35">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36">
+        <v>979</v>
+      </c>
+      <c r="C36">
+        <v>53781</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>-100</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1E-3</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>31</v>
+      </c>
+      <c r="R36">
+        <v>134</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>0.1</v>
+      </c>
+      <c r="W36">
+        <v>50</v>
+      </c>
+      <c r="X36">
+        <v>0.5</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>102191</v>
+      </c>
+      <c r="AA36">
+        <v>3.4825526921846102E-2</v>
+      </c>
+      <c r="AB36">
+        <v>0.71804908032121395</v>
+      </c>
+      <c r="AC36">
+        <v>0.75283528782642595</v>
+      </c>
+      <c r="AD36">
+        <v>8.8726833554353206</v>
+      </c>
+      <c r="AE36">
+        <v>2.2070014504313101E-2</v>
+      </c>
+      <c r="AF36">
+        <v>15353</v>
+      </c>
+      <c r="AG36">
+        <v>16654000</v>
+      </c>
+      <c r="AH36">
+        <v>23</v>
+      </c>
+      <c r="AI36">
+        <v>9420</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AI36" xr:uid="{AED14113-5861-45B8-BFB9-AE7E3F951A1E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI36">
+      <sortCondition descending="1" ref="AG1:AG36"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8B3A15-6792-4DD0-AD02-CC5F3DAF45A8}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2">
+        <v>51.111660000000001</v>
+      </c>
+      <c r="C2" t="str">
+        <f>LEFT(A2, 6)</f>
+        <v>ZZ9421</v>
+      </c>
+      <c r="D2">
+        <v>102191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3">
+        <v>44.072890000000001</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C6" si="0">LEFT(A3, 6)</f>
+        <v>ZZ9411</v>
+      </c>
+      <c r="D3" t="str">
+        <f>LEFT(RIGHT(A3,10),6)</f>
+        <v>102191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4">
+        <v>44.072890000000001</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>ZZ9411</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D6" si="1">LEFT(RIGHT(A4,10),6)</f>
+        <v>676241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5">
+        <v>45.552639999999997</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>ZZ9411</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>668111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6">
+        <v>48.872059999999998</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>ZZ9411</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>433889</v>
       </c>
     </row>
   </sheetData>
